--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_0_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1697354.651220371</v>
+        <v>1642392.944814026</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335136.9433765134</v>
+        <v>211711.4484537949</v>
       </c>
     </row>
     <row r="8">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.376898027766021</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G2" t="n">
-        <v>3.516869431124789</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.1776483877525582</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="D3" t="n">
-        <v>3.097658594934713</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -782,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.516869431124789</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="R3" t="n">
-        <v>3.516869431124789</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3.516869431124789</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.376898027766035</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G5" t="n">
         <v>3.516869431124803</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.1776483877525582</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -980,67 +980,67 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.097658594934726</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.516869431124803</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.376898027766035</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G8" t="n">
         <v>3.516869431124803</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.1776483877525582</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,16 +1220,16 @@
         <v>3.516869431124803</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.097658594934726</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>323.7238271367995</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>185.5911946793677</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>52.41817517784278</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>130.8741761739717</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>211.8708247664476</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>143.3458156449838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.09324089333306</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.22331673875185</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4371603754213</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>6.44301091817096</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>211.4051987207168</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>417.4006896726905</v>
       </c>
       <c r="H14" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>194.7603440885288</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>122.02100191483</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -1703,10 +1703,10 @@
         <v>147.9754831086837</v>
       </c>
       <c r="H15" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V15" t="n">
-        <v>20.25995031184197</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>34.17808626018098</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>47.66470008308518</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.09324089333303</v>
+        <v>74.65185754899971</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.22331673875185</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>174.4371603754213</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>323.723827136799</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>62.49915424273899</v>
       </c>
       <c r="G17" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8442261590961208</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>177.3046992815431</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8708247664476</v>
+        <v>199.0313185021892</v>
       </c>
       <c r="U18" t="n">
         <v>237.1774694070239</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>157.8268357890596</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>74.83426259926371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,13 +2083,13 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>114.3851677646572</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>118.7524202818698</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,25 +2162,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>177.3046992815431</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>19.31535794749199</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>153.3072969763614</v>
       </c>
     </row>
     <row r="22">
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>155.0775767952812</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>79.61244519333782</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>277.8943362067214</v>
+        <v>214.732007285257</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I23" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,16 +2399,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>84.55525365120891</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>147.9754831086837</v>
@@ -2417,7 +2417,7 @@
         <v>118.3074313936392</v>
       </c>
       <c r="I24" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.53061740732972</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>51.64470282305635</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>79.61244519333782</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I26" t="n">
-        <v>59.20224023324181</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>297.0514733161183</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,16 +2636,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>47.47801789545644</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,22 +2687,22 @@
         <v>177.3046992815431</v>
       </c>
       <c r="T27" t="n">
-        <v>211.8708247664476</v>
+        <v>22.2713562185047</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>76.63995283957986</v>
+        <v>130.2965370355339</v>
       </c>
       <c r="I28" t="n">
-        <v>145.4619076189266</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.65185754899971</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
         <v>417.4006896726905</v>
       </c>
       <c r="H29" t="n">
-        <v>164.8492987825248</v>
+        <v>25.20045617277427</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>129.820948370743</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>147.9754831086837</v>
@@ -2891,7 +2891,7 @@
         <v>118.3074313936392</v>
       </c>
       <c r="I30" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1774694070239</v>
+        <v>193.1044532337644</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -2936,10 +2936,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>151.5710677567955</v>
+        <v>51.64470282305635</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5911946793677</v>
+        <v>32.27453909332162</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>139.8842003164507</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.1732982980278</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>147.9754831086837</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>86.9668093141174</v>
       </c>
       <c r="S33" t="n">
-        <v>177.3046992815431</v>
+        <v>71.41962338455015</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>121.7383717841094</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.443010918170924</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>51.64470282305634</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>142.8599622631358</v>
       </c>
       <c r="T35" t="n">
-        <v>87.85031520134859</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
         <v>382.2855674184499</v>
@@ -3347,7 +3347,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U36" t="n">
-        <v>190.7230679296182</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>148.8319196732573</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>75.74723767418692</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.0064803333194</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>16.15069457683456</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>52.29387099430369</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>196.9505869528857</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -3593,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H39" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>72.41563653597889</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>35.99716443676038</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>8.132332248944849</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6213857585613</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>130.2965370355339</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>129.8361653288501</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>131.1857580208216</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -3830,13 +3830,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>80.88269664813839</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>130.3541407905907</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>131.7031262008919</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>174.4371603754213</v>
+        <v>75.74723767418692</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.0064803333194</v>
       </c>
       <c r="U43" t="n">
-        <v>122.3165576320849</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>272.3011643864165</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>124.7971554472195</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>114.7632938393453</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0.844226159096557</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>130.2965370355339</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>73.22331673875185</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>57.07322029678204</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.06747772449916</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="C2" t="n">
-        <v>14.06747772449916</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="D2" t="n">
-        <v>14.06747772449916</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="E2" t="n">
-        <v>14.06747772449916</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="F2" t="n">
-        <v>10.65646961564459</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="G2" t="n">
-        <v>7.104076250872075</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="H2" t="n">
-        <v>7.104076250872075</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="I2" t="n">
-        <v>7.104076250872075</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J2" t="n">
-        <v>7.104076250872075</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="K2" t="n">
-        <v>7.104076250872075</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="L2" t="n">
-        <v>7.104076250872075</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="M2" t="n">
-        <v>10.58577698768562</v>
+        <v>3.763050291303539</v>
       </c>
       <c r="N2" t="n">
-        <v>14.06747772449916</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="O2" t="n">
-        <v>14.06747772449916</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="P2" t="n">
-        <v>14.06747772449916</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.06747772449916</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="R2" t="n">
-        <v>14.06747772449916</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="S2" t="n">
-        <v>14.06747772449916</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="T2" t="n">
-        <v>14.06747772449916</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="U2" t="n">
-        <v>14.06747772449916</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="V2" t="n">
-        <v>14.06747772449916</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="W2" t="n">
-        <v>14.06747772449916</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="X2" t="n">
-        <v>14.06747772449916</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.06747772449916</v>
+        <v>7.065308212205419</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.410297630181612</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410297630181612</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2813495544899831</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2813495544899831</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2813495544899831</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2813495544899831</v>
+        <v>3.45619840956866</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2813495544899831</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="M3" t="n">
-        <v>3.622375514058534</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="N3" t="n">
-        <v>7.104076250872075</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="O3" t="n">
-        <v>10.58577698768562</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="P3" t="n">
-        <v>14.06747772449916</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.51508435972664</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="R3" t="n">
-        <v>6.962690994954126</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="S3" t="n">
-        <v>3.410297630181612</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="T3" t="n">
-        <v>3.410297630181612</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="U3" t="n">
-        <v>3.410297630181612</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="V3" t="n">
-        <v>3.410297630181612</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="W3" t="n">
-        <v>3.410297630181612</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="X3" t="n">
-        <v>3.410297630181612</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.410297630181612</v>
+        <v>7.386136284035041</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2813495544899831</v>
+        <v>0.2813495544899843</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="C5" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="D5" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="E5" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="F5" t="n">
         <v>3.833742919262513</v>
@@ -4606,13 +4606,13 @@
         <v>7.244751028117094</v>
       </c>
       <c r="W5" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="X5" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.386136284035041</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="C6" t="n">
-        <v>7.386136284035041</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="D6" t="n">
         <v>7.386136284035041</v>
       </c>
       <c r="E6" t="n">
-        <v>7.386136284035041</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="F6" t="n">
-        <v>7.386136284035041</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="G6" t="n">
         <v>3.833742919262513</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="I6" t="n">
         <v>0.2813495544899843</v>
@@ -4658,7 +4658,7 @@
         <v>7.244751028117094</v>
       </c>
       <c r="N6" t="n">
-        <v>10.72645176493065</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="O6" t="n">
         <v>14.06747772449921</v>
@@ -4667,31 +4667,31 @@
         <v>14.06747772449921</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.93852964880757</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="R6" t="n">
-        <v>10.93852964880757</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="S6" t="n">
-        <v>10.93852964880757</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="T6" t="n">
-        <v>7.386136284035041</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="U6" t="n">
-        <v>7.386136284035041</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="V6" t="n">
-        <v>7.386136284035041</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="W6" t="n">
-        <v>7.386136284035041</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="X6" t="n">
-        <v>7.386136284035041</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.386136284035041</v>
+        <v>10.51508435972668</v>
       </c>
     </row>
     <row r="7">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="C8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="D8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="E8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="F8" t="n">
         <v>3.833742919262513</v>
@@ -4831,25 +4831,25 @@
         <v>7.244751028117094</v>
       </c>
       <c r="S8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="T8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="U8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="V8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="W8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="X8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.06747772449921</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="C9" t="n">
-        <v>14.06747772449921</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="D9" t="n">
-        <v>10.51508435972668</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="E9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="F9" t="n">
-        <v>3.410297630181626</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="G9" t="n">
-        <v>3.410297630181626</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="H9" t="n">
         <v>0.2813495544899843</v>
@@ -4889,10 +4889,10 @@
         <v>3.45619840956866</v>
       </c>
       <c r="L9" t="n">
-        <v>6.937899146382215</v>
+        <v>3.45619840956866</v>
       </c>
       <c r="M9" t="n">
-        <v>7.104076250872104</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="N9" t="n">
         <v>7.104076250872104</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1713.270185522716</v>
+        <v>562.9152565605503</v>
       </c>
       <c r="C11" t="n">
-        <v>1713.270185522716</v>
+        <v>562.9152565605503</v>
       </c>
       <c r="D11" t="n">
-        <v>1713.270185522716</v>
+        <v>221.7312569219369</v>
       </c>
       <c r="E11" t="n">
-        <v>1386.27642073807</v>
+        <v>221.7312569219369</v>
       </c>
       <c r="F11" t="n">
-        <v>979.0044514047228</v>
+        <v>221.7312569219369</v>
       </c>
       <c r="G11" t="n">
-        <v>557.3875931494798</v>
+        <v>221.7312569219369</v>
       </c>
       <c r="H11" t="n">
         <v>221.7312569219369</v>
       </c>
       <c r="I11" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J11" t="n">
-        <v>79.03615234277368</v>
+        <v>79.03615234277376</v>
       </c>
       <c r="K11" t="n">
-        <v>253.4009645124889</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L11" t="n">
-        <v>524.6989948305061</v>
+        <v>524.6989948305063</v>
       </c>
       <c r="M11" t="n">
-        <v>855.4462867779239</v>
+        <v>855.446286777924</v>
       </c>
       <c r="N11" t="n">
-        <v>1184.702979677704</v>
+        <v>1184.702979677705</v>
       </c>
       <c r="O11" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P11" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q11" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R11" t="n">
-        <v>1713.270185522716</v>
+        <v>1607.629543432272</v>
       </c>
       <c r="S11" t="n">
-        <v>1713.270185522716</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="T11" t="n">
-        <v>1713.270185522716</v>
+        <v>1192.545056173124</v>
       </c>
       <c r="U11" t="n">
-        <v>1713.270185522716</v>
+        <v>939.9839017999391</v>
       </c>
       <c r="V11" t="n">
-        <v>1713.270185522716</v>
+        <v>615.862908255341</v>
       </c>
       <c r="W11" t="n">
-        <v>1713.270185522716</v>
+        <v>562.9152565605503</v>
       </c>
       <c r="X11" t="n">
-        <v>1713.270185522716</v>
+        <v>562.9152565605503</v>
       </c>
       <c r="Y11" t="n">
-        <v>1713.270185522716</v>
+        <v>562.9152565605503</v>
       </c>
     </row>
     <row r="12">
@@ -5096,55 +5096,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>115.9650972944325</v>
+        <v>810.7027626184968</v>
       </c>
       <c r="C12" t="n">
-        <v>115.9650972944325</v>
+        <v>678.5066250690304</v>
       </c>
       <c r="D12" t="n">
-        <v>115.9650972944325</v>
+        <v>517.7265088300621</v>
       </c>
       <c r="E12" t="n">
-        <v>115.9650972944325</v>
+        <v>344.1633049514766</v>
       </c>
       <c r="F12" t="n">
-        <v>115.9650972944325</v>
+        <v>183.7355886687207</v>
       </c>
       <c r="G12" t="n">
-        <v>115.9650972944325</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9650972944325</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I12" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J12" t="n">
-        <v>54.25343639154485</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K12" t="n">
-        <v>111.1747061710125</v>
+        <v>215.1710339715871</v>
       </c>
       <c r="L12" t="n">
-        <v>393.83481691695</v>
+        <v>497.8311447175246</v>
       </c>
       <c r="M12" t="n">
-        <v>768.4404981588028</v>
+        <v>872.4368259593773</v>
       </c>
       <c r="N12" t="n">
-        <v>1171.380766676014</v>
+        <v>1275.377094476588</v>
       </c>
       <c r="O12" t="n">
-        <v>1484.24530923774</v>
+        <v>1588.241637038315</v>
       </c>
       <c r="P12" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="Q12" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R12" t="n">
-        <v>1625.424923589264</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="S12" t="n">
         <v>1446.329267749321</v>
@@ -5153,19 +5153,19 @@
         <v>1232.318333641798</v>
       </c>
       <c r="U12" t="n">
-        <v>992.745132220562</v>
+        <v>1232.318333641798</v>
       </c>
       <c r="V12" t="n">
-        <v>749.6654141241961</v>
+        <v>989.2386155454319</v>
       </c>
       <c r="W12" t="n">
-        <v>480.2668448544874</v>
+        <v>989.2386155454319</v>
       </c>
       <c r="X12" t="n">
-        <v>260.7588504711838</v>
+        <v>989.2386155454319</v>
       </c>
       <c r="Y12" t="n">
-        <v>115.9650972944325</v>
+        <v>989.2386155454319</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.85453592594226</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C13" t="n">
-        <v>83.85453592594226</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D13" t="n">
-        <v>83.85453592594226</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E13" t="n">
-        <v>83.85453592594226</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F13" t="n">
-        <v>83.85453592594226</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G13" t="n">
-        <v>83.85453592594226</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H13" t="n">
-        <v>83.85453592594226</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I13" t="n">
-        <v>83.85453592594226</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J13" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K13" t="n">
-        <v>42.07125390872751</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L13" t="n">
         <v>105.1473006107386</v>
@@ -5220,31 +5220,31 @@
         <v>334.0166340210667</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R13" t="n">
-        <v>83.85453592594226</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S13" t="n">
-        <v>83.85453592594226</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T13" t="n">
-        <v>83.85453592594226</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U13" t="n">
-        <v>83.85453592594226</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="V13" t="n">
-        <v>83.85453592594226</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="W13" t="n">
-        <v>83.85453592594226</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="X13" t="n">
-        <v>83.85453592594226</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.85453592594226</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1192.545056173124</v>
+        <v>797.0662616043107</v>
       </c>
       <c r="C14" t="n">
-        <v>1192.545056173124</v>
+        <v>797.0662616043107</v>
       </c>
       <c r="D14" t="n">
-        <v>1192.545056173124</v>
+        <v>455.8822619656972</v>
       </c>
       <c r="E14" t="n">
-        <v>1192.545056173124</v>
+        <v>455.8822619656972</v>
       </c>
       <c r="F14" t="n">
-        <v>979.0044514047228</v>
+        <v>455.8822619656972</v>
       </c>
       <c r="G14" t="n">
-        <v>557.3875931494798</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="H14" t="n">
-        <v>221.7312569219368</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="I14" t="n">
         <v>34.26540371045429</v>
@@ -5284,16 +5284,16 @@
         <v>253.400964512489</v>
       </c>
       <c r="L14" t="n">
-        <v>524.6989948305059</v>
+        <v>524.6989948305061</v>
       </c>
       <c r="M14" t="n">
-        <v>855.4462867779238</v>
+        <v>855.446286777924</v>
       </c>
       <c r="N14" t="n">
         <v>1184.702979677704</v>
       </c>
       <c r="O14" t="n">
-        <v>1458.701379414584</v>
+        <v>1458.701379414585</v>
       </c>
       <c r="P14" t="n">
         <v>1648.405101797588</v>
@@ -5302,28 +5302,28 @@
         <v>1713.270185522715</v>
       </c>
       <c r="R14" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S14" t="n">
-        <v>1410.901923140829</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="T14" t="n">
-        <v>1192.545056173124</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="U14" t="n">
-        <v>1192.545056173124</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="V14" t="n">
-        <v>1192.545056173124</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="W14" t="n">
-        <v>1192.545056173124</v>
+        <v>1174.932160975859</v>
       </c>
       <c r="X14" t="n">
-        <v>1192.545056173124</v>
+        <v>1174.932160975859</v>
       </c>
       <c r="Y14" t="n">
-        <v>1192.545056173124</v>
+        <v>1174.932160975859</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1069.121048873216</v>
+        <v>867.9188993360667</v>
       </c>
       <c r="C15" t="n">
-        <v>879.7087746061794</v>
+        <v>678.5066250690304</v>
       </c>
       <c r="D15" t="n">
-        <v>718.9286583672111</v>
+        <v>517.7265088300621</v>
       </c>
       <c r="E15" t="n">
-        <v>545.3654544886256</v>
+        <v>344.1633049514766</v>
       </c>
       <c r="F15" t="n">
-        <v>384.9377382058697</v>
+        <v>183.7355886687207</v>
       </c>
       <c r="G15" t="n">
-        <v>235.4675532476033</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="I15" t="n">
         <v>34.26540371045429</v>
       </c>
       <c r="J15" t="n">
-        <v>54.25343639154483</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="K15" t="n">
-        <v>111.1747061710116</v>
+        <v>37.44025256553297</v>
       </c>
       <c r="L15" t="n">
-        <v>393.8348169169491</v>
+        <v>320.1003633114705</v>
       </c>
       <c r="M15" t="n">
-        <v>768.4404981588019</v>
+        <v>694.7060445533232</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.380766676013</v>
+        <v>1097.646313070534</v>
       </c>
       <c r="O15" t="n">
-        <v>1484.245309237739</v>
+        <v>1410.51085563226</v>
       </c>
       <c r="P15" t="n">
-        <v>1713.270185522715</v>
+        <v>1639.535731917236</v>
       </c>
       <c r="Q15" t="n">
         <v>1713.270185522715</v>
       </c>
       <c r="R15" t="n">
-        <v>1713.270185522715</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="S15" t="n">
-        <v>1713.270185522715</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="T15" t="n">
-        <v>1713.270185522715</v>
+        <v>1411.41398948174</v>
       </c>
       <c r="U15" t="n">
-        <v>1713.270185522715</v>
+        <v>1171.840788060504</v>
       </c>
       <c r="V15" t="n">
-        <v>1692.805589248127</v>
+        <v>1171.840788060504</v>
       </c>
       <c r="W15" t="n">
-        <v>1692.805589248127</v>
+        <v>902.442218790795</v>
       </c>
       <c r="X15" t="n">
-        <v>1473.297594864823</v>
+        <v>867.9188993360667</v>
       </c>
       <c r="Y15" t="n">
-        <v>1247.656901800151</v>
+        <v>867.9188993360667</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.8545359259422</v>
+        <v>157.8174821267017</v>
       </c>
       <c r="C16" t="n">
-        <v>83.8545359259422</v>
+        <v>157.8174821267017</v>
       </c>
       <c r="D16" t="n">
-        <v>83.8545359259422</v>
+        <v>157.8174821267017</v>
       </c>
       <c r="E16" t="n">
-        <v>83.8545359259422</v>
+        <v>157.8174821267017</v>
       </c>
       <c r="F16" t="n">
-        <v>83.8545359259422</v>
+        <v>157.8174821267017</v>
       </c>
       <c r="G16" t="n">
-        <v>83.8545359259422</v>
+        <v>157.8174821267017</v>
       </c>
       <c r="H16" t="n">
-        <v>83.8545359259422</v>
+        <v>109.6713204266156</v>
       </c>
       <c r="I16" t="n">
-        <v>83.8545359259422</v>
+        <v>109.6713204266156</v>
       </c>
       <c r="J16" t="n">
         <v>34.26540371045429</v>
@@ -5457,31 +5457,31 @@
         <v>334.0166340210666</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210666</v>
       </c>
       <c r="R16" t="n">
-        <v>83.8545359259422</v>
+        <v>157.8174821267017</v>
       </c>
       <c r="S16" t="n">
-        <v>83.8545359259422</v>
+        <v>157.8174821267017</v>
       </c>
       <c r="T16" t="n">
-        <v>83.8545359259422</v>
+        <v>157.8174821267017</v>
       </c>
       <c r="U16" t="n">
-        <v>83.8545359259422</v>
+        <v>157.8174821267017</v>
       </c>
       <c r="V16" t="n">
-        <v>83.8545359259422</v>
+        <v>157.8174821267017</v>
       </c>
       <c r="W16" t="n">
-        <v>83.8545359259422</v>
+        <v>157.8174821267017</v>
       </c>
       <c r="X16" t="n">
-        <v>83.8545359259422</v>
+        <v>157.8174821267017</v>
       </c>
       <c r="Y16" t="n">
-        <v>83.8545359259422</v>
+        <v>157.8174821267017</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1713.270185522715</v>
+        <v>451.1387891891592</v>
       </c>
       <c r="C17" t="n">
-        <v>1713.270185522715</v>
+        <v>97.39586254150379</v>
       </c>
       <c r="D17" t="n">
-        <v>1713.270185522715</v>
+        <v>97.39586254150379</v>
       </c>
       <c r="E17" t="n">
-        <v>1386.27642073807</v>
+        <v>97.39586254150379</v>
       </c>
       <c r="F17" t="n">
-        <v>979.0044514047228</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G17" t="n">
-        <v>557.3875931494798</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H17" t="n">
-        <v>221.7312569219369</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I17" t="n">
         <v>34.2654037104543</v>
@@ -5542,25 +5542,25 @@
         <v>1713.270185522715</v>
       </c>
       <c r="S17" t="n">
-        <v>1713.270185522715</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="T17" t="n">
-        <v>1713.270185522715</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="U17" t="n">
-        <v>1713.270185522715</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="V17" t="n">
-        <v>1713.270185522715</v>
+        <v>1192.421571686674</v>
       </c>
       <c r="W17" t="n">
-        <v>1713.270185522715</v>
+        <v>1192.421571686674</v>
       </c>
       <c r="X17" t="n">
-        <v>1713.270185522715</v>
+        <v>829.004688560708</v>
       </c>
       <c r="Y17" t="n">
-        <v>1713.270185522715</v>
+        <v>829.004688560708</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34.2654037104543</v>
+        <v>867.9188993360667</v>
       </c>
       <c r="C18" t="n">
-        <v>34.2654037104543</v>
+        <v>678.5066250690304</v>
       </c>
       <c r="D18" t="n">
-        <v>34.2654037104543</v>
+        <v>517.7265088300621</v>
       </c>
       <c r="E18" t="n">
-        <v>34.2654037104543</v>
+        <v>344.1633049514766</v>
       </c>
       <c r="F18" t="n">
-        <v>34.2654037104543</v>
+        <v>183.7355886687207</v>
       </c>
       <c r="G18" t="n">
         <v>34.2654037104543</v>
@@ -5603,7 +5603,7 @@
         <v>497.8311447175246</v>
       </c>
       <c r="M18" t="n">
-        <v>678.0453684563939</v>
+        <v>872.4368259593773</v>
       </c>
       <c r="N18" t="n">
         <v>1080.985636973605</v>
@@ -5618,28 +5618,28 @@
         <v>1713.270185522715</v>
       </c>
       <c r="R18" t="n">
-        <v>1625.424923589263</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S18" t="n">
-        <v>1446.329267749321</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="T18" t="n">
-        <v>1232.318333641798</v>
+        <v>1333.132793821975</v>
       </c>
       <c r="U18" t="n">
-        <v>992.7451322205616</v>
+        <v>1093.559592400739</v>
       </c>
       <c r="V18" t="n">
-        <v>749.6654141241956</v>
+        <v>1093.559592400739</v>
       </c>
       <c r="W18" t="n">
-        <v>480.266844854487</v>
+        <v>1093.559592400739</v>
       </c>
       <c r="X18" t="n">
-        <v>260.7588504711833</v>
+        <v>1093.559592400739</v>
       </c>
       <c r="Y18" t="n">
-        <v>35.11815740651099</v>
+        <v>867.9188993360667</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="C19" t="n">
-        <v>34.2654037104543</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="D19" t="n">
-        <v>34.2654037104543</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="E19" t="n">
-        <v>34.2654037104543</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="F19" t="n">
         <v>34.2654037104543</v>
@@ -5715,10 +5715,10 @@
         <v>334.0166340210667</v>
       </c>
       <c r="X19" t="n">
-        <v>109.8555679521348</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>723.6646665856526</v>
+        <v>525.037201514791</v>
       </c>
       <c r="C20" t="n">
-        <v>369.9217399379972</v>
+        <v>525.037201514791</v>
       </c>
       <c r="D20" t="n">
-        <v>369.9217399379972</v>
+        <v>409.4966280151373</v>
       </c>
       <c r="E20" t="n">
-        <v>369.9217399379972</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F20" t="n">
-        <v>369.9217399379972</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G20" t="n">
-        <v>369.9217399379972</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H20" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I20" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J20" t="n">
-        <v>79.03615234277373</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K20" t="n">
         <v>253.400964512489</v>
       </c>
       <c r="L20" t="n">
-        <v>524.6989948305054</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M20" t="n">
-        <v>855.4462867779233</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N20" t="n">
         <v>1184.702979677704</v>
       </c>
       <c r="O20" t="n">
-        <v>1458.701379414584</v>
+        <v>1458.701379414585</v>
       </c>
       <c r="P20" t="n">
         <v>1648.405101797588</v>
@@ -5791,13 +5791,13 @@
         <v>1607.629543432272</v>
       </c>
       <c r="W20" t="n">
-        <v>1607.629543432272</v>
+        <v>1266.319984012306</v>
       </c>
       <c r="X20" t="n">
-        <v>1487.677603753615</v>
+        <v>902.9031008863399</v>
       </c>
       <c r="Y20" t="n">
-        <v>1101.530565957201</v>
+        <v>902.9031008863399</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>545.3654544886256</v>
+        <v>384.4577942164589</v>
       </c>
       <c r="C21" t="n">
-        <v>545.3654544886256</v>
+        <v>195.0455199494226</v>
       </c>
       <c r="D21" t="n">
-        <v>545.3654544886256</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E21" t="n">
-        <v>545.3654544886256</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F21" t="n">
-        <v>384.9377382058697</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G21" t="n">
-        <v>235.4675532476033</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9650972944325</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I21" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J21" t="n">
-        <v>54.25343639154483</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K21" t="n">
-        <v>111.1747061710116</v>
+        <v>215.1710339715871</v>
       </c>
       <c r="L21" t="n">
-        <v>393.8348169169491</v>
+        <v>497.8311447175246</v>
       </c>
       <c r="M21" t="n">
-        <v>768.4404981588019</v>
+        <v>872.4368259593773</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.380766676013</v>
+        <v>1275.377094476588</v>
       </c>
       <c r="O21" t="n">
-        <v>1484.245309237739</v>
+        <v>1588.241637038315</v>
       </c>
       <c r="P21" t="n">
-        <v>1713.270185522715</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q21" t="n">
         <v>1713.270185522715</v>
@@ -5858,25 +5858,25 @@
         <v>1625.424923589263</v>
       </c>
       <c r="S21" t="n">
-        <v>1446.32926774932</v>
+        <v>1446.329267749321</v>
       </c>
       <c r="T21" t="n">
-        <v>1232.318333641797</v>
+        <v>1446.329267749321</v>
       </c>
       <c r="U21" t="n">
-        <v>1212.807871068573</v>
+        <v>1206.756066328084</v>
       </c>
       <c r="V21" t="n">
-        <v>1212.807871068573</v>
+        <v>1206.756066328084</v>
       </c>
       <c r="W21" t="n">
-        <v>943.4093017988644</v>
+        <v>937.3574970583758</v>
       </c>
       <c r="X21" t="n">
-        <v>723.9013074155607</v>
+        <v>717.8495026750721</v>
       </c>
       <c r="Y21" t="n">
-        <v>723.9013074155607</v>
+        <v>562.9936471433939</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>334.0166340210666</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C22" t="n">
-        <v>334.0166340210666</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D22" t="n">
-        <v>334.0166340210666</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E22" t="n">
-        <v>190.9094206753848</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F22" t="n">
-        <v>190.9094206753848</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G22" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H22" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I22" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J22" t="n">
-        <v>34.26540371045429</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K22" t="n">
-        <v>42.07125390872748</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L22" t="n">
-        <v>105.1473006107385</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M22" t="n">
         <v>180.2480375930232</v>
       </c>
       <c r="N22" t="n">
-        <v>261.5791831678328</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O22" t="n">
-        <v>314.7040135792698</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P22" t="n">
-        <v>334.0166340210666</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q22" t="n">
-        <v>334.0166340210666</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R22" t="n">
-        <v>334.0166340210666</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S22" t="n">
-        <v>334.0166340210666</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T22" t="n">
-        <v>334.0166340210666</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="U22" t="n">
-        <v>334.0166340210666</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="V22" t="n">
-        <v>334.0166340210666</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="W22" t="n">
-        <v>334.0166340210666</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="X22" t="n">
-        <v>334.0166340210666</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="Y22" t="n">
-        <v>334.0166340210666</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>843.6166062643093</v>
+        <v>994.0947267311998</v>
       </c>
       <c r="C23" t="n">
-        <v>843.6166062643093</v>
+        <v>994.0947267311998</v>
       </c>
       <c r="D23" t="n">
-        <v>502.4326066256959</v>
+        <v>994.0947267311998</v>
       </c>
       <c r="E23" t="n">
-        <v>221.7312569219369</v>
+        <v>777.1937092713442</v>
       </c>
       <c r="F23" t="n">
-        <v>221.7312569219369</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="G23" t="n">
-        <v>221.7312569219369</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="H23" t="n">
-        <v>221.7312569219369</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I23" t="n">
         <v>34.2654037104543</v>
@@ -5995,10 +5995,10 @@
         <v>253.400964512489</v>
       </c>
       <c r="L23" t="n">
-        <v>524.6989948305059</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M23" t="n">
-        <v>855.4462867779238</v>
+        <v>855.4462867779239</v>
       </c>
       <c r="N23" t="n">
         <v>1184.702979677704</v>
@@ -6013,28 +6013,28 @@
         <v>1713.270185522715</v>
       </c>
       <c r="R23" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S23" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T23" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U23" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="V23" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="W23" t="n">
-        <v>1607.629543432272</v>
+        <v>1371.960626102749</v>
       </c>
       <c r="X23" t="n">
-        <v>1607.629543432272</v>
+        <v>1371.960626102749</v>
       </c>
       <c r="Y23" t="n">
-        <v>1221.482505635858</v>
+        <v>1371.960626102749</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>820.1870758780951</v>
+        <v>637.5813647394453</v>
       </c>
       <c r="C24" t="n">
-        <v>630.7748016110588</v>
+        <v>637.5813647394453</v>
       </c>
       <c r="D24" t="n">
-        <v>630.7748016110588</v>
+        <v>476.8012485004771</v>
       </c>
       <c r="E24" t="n">
-        <v>545.3654544886256</v>
+        <v>303.2380446218916</v>
       </c>
       <c r="F24" t="n">
-        <v>384.9377382058697</v>
+        <v>303.2380446218916</v>
       </c>
       <c r="G24" t="n">
-        <v>235.4675532476033</v>
+        <v>153.7678596636252</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9650972944325</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I24" t="n">
         <v>34.2654037104543</v>
       </c>
       <c r="J24" t="n">
-        <v>54.25343639154484</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K24" t="n">
-        <v>111.1747061710121</v>
+        <v>195.1830012904965</v>
       </c>
       <c r="L24" t="n">
-        <v>393.8348169169496</v>
+        <v>477.843112036434</v>
       </c>
       <c r="M24" t="n">
-        <v>768.4404981588024</v>
+        <v>678.0453684563939</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.380766676013</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O24" t="n">
-        <v>1484.24530923774</v>
+        <v>1393.850179535331</v>
       </c>
       <c r="P24" t="n">
-        <v>1713.270185522715</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q24" t="n">
         <v>1713.270185522715</v>
       </c>
       <c r="R24" t="n">
-        <v>1713.270185522715</v>
+        <v>1683.441279050665</v>
       </c>
       <c r="S24" t="n">
-        <v>1713.270185522715</v>
+        <v>1504.345623210722</v>
       </c>
       <c r="T24" t="n">
-        <v>1713.270185522715</v>
+        <v>1504.345623210722</v>
       </c>
       <c r="U24" t="n">
-        <v>1713.270185522715</v>
+        <v>1504.345623210722</v>
       </c>
       <c r="V24" t="n">
-        <v>1713.270185522715</v>
+        <v>1261.265905114356</v>
       </c>
       <c r="W24" t="n">
-        <v>1443.871616253006</v>
+        <v>1261.265905114356</v>
       </c>
       <c r="X24" t="n">
-        <v>1224.363621869703</v>
+        <v>1041.757910731053</v>
       </c>
       <c r="Y24" t="n">
-        <v>998.7229288050303</v>
+        <v>816.1172176663804</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.43177019839001</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C25" t="n">
-        <v>86.43177019839001</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D25" t="n">
-        <v>86.43177019839001</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E25" t="n">
-        <v>86.43177019839001</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F25" t="n">
-        <v>86.43177019839001</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G25" t="n">
-        <v>86.43177019839001</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H25" t="n">
         <v>34.2654037104543</v>
@@ -6171,28 +6171,28 @@
         <v>334.0166340210667</v>
       </c>
       <c r="R25" t="n">
-        <v>334.0166340210667</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="S25" t="n">
-        <v>334.0166340210667</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="T25" t="n">
-        <v>334.0166340210667</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="U25" t="n">
-        <v>334.0166340210667</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="V25" t="n">
-        <v>86.43177019839001</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="W25" t="n">
-        <v>86.43177019839001</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="X25" t="n">
-        <v>86.43177019839001</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="Y25" t="n">
-        <v>86.43177019839001</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1298.185698263567</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="C26" t="n">
-        <v>1298.185698263567</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="D26" t="n">
-        <v>1298.185698263567</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="E26" t="n">
-        <v>922.9544739588845</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="F26" t="n">
-        <v>515.6825046255375</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="G26" t="n">
-        <v>94.06564637029453</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="H26" t="n">
-        <v>94.06564637029453</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I26" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J26" t="n">
-        <v>79.03615234277413</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K26" t="n">
-        <v>253.4009645124897</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L26" t="n">
-        <v>524.6989948305068</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M26" t="n">
-        <v>855.4462867779245</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N26" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.701379414586</v>
+        <v>1458.701379414585</v>
       </c>
       <c r="P26" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q26" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R26" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S26" t="n">
-        <v>1516.542565231272</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T26" t="n">
-        <v>1298.185698263567</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U26" t="n">
-        <v>1298.185698263567</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="V26" t="n">
-        <v>1298.185698263567</v>
+        <v>1389.149191978117</v>
       </c>
       <c r="W26" t="n">
-        <v>1298.185698263567</v>
+        <v>1047.83963255815</v>
       </c>
       <c r="X26" t="n">
-        <v>1298.185698263567</v>
+        <v>747.7876393095461</v>
       </c>
       <c r="Y26" t="n">
-        <v>1298.185698263567</v>
+        <v>747.7876393095461</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>82.2229975442487</v>
+        <v>800.1484079617785</v>
       </c>
       <c r="C27" t="n">
-        <v>82.2229975442487</v>
+        <v>610.7361336947422</v>
       </c>
       <c r="D27" t="n">
-        <v>34.26540371045431</v>
+        <v>449.9560174557739</v>
       </c>
       <c r="E27" t="n">
-        <v>34.26540371045431</v>
+        <v>276.3928135771883</v>
       </c>
       <c r="F27" t="n">
-        <v>34.26540371045431</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="G27" t="n">
-        <v>34.26540371045431</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="H27" t="n">
-        <v>34.26540371045431</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="I27" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J27" t="n">
-        <v>54.25343639154485</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K27" t="n">
         <v>215.1710339715871</v>
@@ -6314,43 +6314,43 @@
         <v>497.8311447175246</v>
       </c>
       <c r="M27" t="n">
-        <v>768.4404981588028</v>
+        <v>768.4404981588024</v>
       </c>
       <c r="N27" t="n">
-        <v>1171.380766676014</v>
+        <v>1171.380766676013</v>
       </c>
       <c r="O27" t="n">
         <v>1484.24530923774</v>
       </c>
       <c r="P27" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="Q27" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R27" t="n">
-        <v>1625.424923589264</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="S27" t="n">
         <v>1446.329267749321</v>
       </c>
       <c r="T27" t="n">
-        <v>1232.318333641798</v>
+        <v>1423.83294833669</v>
       </c>
       <c r="U27" t="n">
-        <v>992.745132220562</v>
+        <v>1423.83294833669</v>
       </c>
       <c r="V27" t="n">
-        <v>749.6654141241961</v>
+        <v>1423.83294833669</v>
       </c>
       <c r="W27" t="n">
-        <v>480.2668448544874</v>
+        <v>1423.83294833669</v>
       </c>
       <c r="X27" t="n">
-        <v>260.7588504711838</v>
+        <v>1204.324953953386</v>
       </c>
       <c r="Y27" t="n">
-        <v>260.7588504711838</v>
+        <v>978.6842608887137</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="C28" t="n">
-        <v>1713.270185522716</v>
+        <v>165.8780673827108</v>
       </c>
       <c r="D28" t="n">
-        <v>1713.270185522716</v>
+        <v>165.8780673827108</v>
       </c>
       <c r="E28" t="n">
-        <v>1713.270185522716</v>
+        <v>165.8780673827108</v>
       </c>
       <c r="F28" t="n">
-        <v>1713.270185522716</v>
+        <v>165.8780673827108</v>
       </c>
       <c r="G28" t="n">
-        <v>1713.270185522716</v>
+        <v>165.8780673827108</v>
       </c>
       <c r="H28" t="n">
-        <v>1635.856091745362</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I28" t="n">
-        <v>1488.924871928265</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J28" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K28" t="n">
-        <v>1421.324805410376</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L28" t="n">
-        <v>1484.400852112388</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M28" t="n">
-        <v>1559.501589094672</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N28" t="n">
-        <v>1640.832734669482</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O28" t="n">
-        <v>1693.957565080919</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P28" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q28" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R28" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S28" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T28" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U28" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V28" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="W28" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="X28" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Y28" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>622.3967051803688</v>
+        <v>1242.352164181825</v>
       </c>
       <c r="C29" t="n">
-        <v>622.3967051803688</v>
+        <v>888.6092375341698</v>
       </c>
       <c r="D29" t="n">
-        <v>622.3967051803688</v>
+        <v>888.6092375341698</v>
       </c>
       <c r="E29" t="n">
-        <v>622.3967051803688</v>
+        <v>888.6092375341698</v>
       </c>
       <c r="F29" t="n">
-        <v>622.3967051803688</v>
+        <v>481.3372682008228</v>
       </c>
       <c r="G29" t="n">
-        <v>200.7798469251259</v>
+        <v>59.72040994557983</v>
       </c>
       <c r="H29" t="n">
         <v>34.2654037104543</v>
@@ -6463,16 +6463,16 @@
         <v>34.2654037104543</v>
       </c>
       <c r="J29" t="n">
-        <v>79.03615234277379</v>
+        <v>79.03615234277376</v>
       </c>
       <c r="K29" t="n">
-        <v>253.4009645124891</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L29" t="n">
-        <v>524.6989948305061</v>
+        <v>524.6989948305063</v>
       </c>
       <c r="M29" t="n">
-        <v>855.446286777924</v>
+        <v>855.4462867779241</v>
       </c>
       <c r="N29" t="n">
         <v>1184.702979677704</v>
@@ -6493,22 +6493,22 @@
         <v>1713.270185522715</v>
       </c>
       <c r="T29" t="n">
-        <v>1713.270185522715</v>
+        <v>1494.91331855501</v>
       </c>
       <c r="U29" t="n">
-        <v>1713.270185522715</v>
+        <v>1242.352164181825</v>
       </c>
       <c r="V29" t="n">
-        <v>1713.270185522715</v>
+        <v>1242.352164181825</v>
       </c>
       <c r="W29" t="n">
-        <v>1371.960626102749</v>
+        <v>1242.352164181825</v>
       </c>
       <c r="X29" t="n">
-        <v>1008.543742976783</v>
+        <v>1242.352164181825</v>
       </c>
       <c r="Y29" t="n">
-        <v>622.3967051803688</v>
+        <v>1242.352164181825</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>384.9377382058697</v>
+        <v>826.6412390502693</v>
       </c>
       <c r="C30" t="n">
-        <v>384.9377382058697</v>
+        <v>637.228964783233</v>
       </c>
       <c r="D30" t="n">
-        <v>384.9377382058697</v>
+        <v>637.228964783233</v>
       </c>
       <c r="E30" t="n">
-        <v>384.9377382058697</v>
+        <v>463.6657609046475</v>
       </c>
       <c r="F30" t="n">
-        <v>384.9377382058697</v>
+        <v>303.2380446218916</v>
       </c>
       <c r="G30" t="n">
-        <v>235.4675532476033</v>
+        <v>153.7678596636252</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9650972944325</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I30" t="n">
         <v>34.2654037104543</v>
       </c>
       <c r="J30" t="n">
-        <v>54.25343639154484</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K30" t="n">
-        <v>54.25343639154484</v>
+        <v>195.1830012904965</v>
       </c>
       <c r="L30" t="n">
-        <v>336.9135471374823</v>
+        <v>477.843112036434</v>
       </c>
       <c r="M30" t="n">
-        <v>711.5192283793351</v>
+        <v>852.4487932782868</v>
       </c>
       <c r="N30" t="n">
-        <v>1114.459496896546</v>
+        <v>1255.389061795498</v>
       </c>
       <c r="O30" t="n">
-        <v>1427.324039458272</v>
+        <v>1393.850179535331</v>
       </c>
       <c r="P30" t="n">
-        <v>1656.348915743248</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q30" t="n">
         <v>1713.270185522715</v>
@@ -6569,25 +6569,25 @@
         <v>1713.270185522715</v>
       </c>
       <c r="S30" t="n">
-        <v>1713.270185522715</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="T30" t="n">
-        <v>1713.270185522715</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="U30" t="n">
-        <v>1473.696984101479</v>
+        <v>1339.119526416344</v>
       </c>
       <c r="V30" t="n">
-        <v>1230.617266005113</v>
+        <v>1096.039808319978</v>
       </c>
       <c r="W30" t="n">
-        <v>961.2186967354043</v>
+        <v>826.6412390502693</v>
       </c>
       <c r="X30" t="n">
-        <v>741.7107023521006</v>
+        <v>826.6412390502693</v>
       </c>
       <c r="Y30" t="n">
-        <v>516.0700092874283</v>
+        <v>826.6412390502693</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>334.0166340210667</v>
+        <v>86.43177019839001</v>
       </c>
       <c r="C31" t="n">
-        <v>180.9145453778389</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D31" t="n">
         <v>34.2654037104543</v>
@@ -6657,16 +6657,16 @@
         <v>334.0166340210667</v>
       </c>
       <c r="V31" t="n">
-        <v>334.0166340210667</v>
+        <v>86.43177019839001</v>
       </c>
       <c r="W31" t="n">
-        <v>334.0166340210667</v>
+        <v>86.43177019839001</v>
       </c>
       <c r="X31" t="n">
-        <v>334.0166340210667</v>
+        <v>86.43177019839001</v>
       </c>
       <c r="Y31" t="n">
-        <v>334.0166340210667</v>
+        <v>86.43177019839001</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>643.3481151771798</v>
+        <v>1131.496435429044</v>
       </c>
       <c r="C32" t="n">
-        <v>643.3481151771798</v>
+        <v>777.753508781389</v>
       </c>
       <c r="D32" t="n">
-        <v>643.3481151771798</v>
+        <v>777.753508781389</v>
       </c>
       <c r="E32" t="n">
-        <v>643.3481151771798</v>
+        <v>402.522284476706</v>
       </c>
       <c r="F32" t="n">
-        <v>643.3481151771798</v>
+        <v>402.522284476706</v>
       </c>
       <c r="G32" t="n">
-        <v>221.7312569219369</v>
+        <v>402.522284476706</v>
       </c>
       <c r="H32" t="n">
-        <v>221.7312569219369</v>
+        <v>66.86594824916301</v>
       </c>
       <c r="I32" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J32" t="n">
-        <v>79.03615234277413</v>
+        <v>79.03615234277376</v>
       </c>
       <c r="K32" t="n">
-        <v>253.4009645124893</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L32" t="n">
-        <v>524.6989948305063</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M32" t="n">
-        <v>855.4462867779242</v>
+        <v>855.4462867779239</v>
       </c>
       <c r="N32" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O32" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P32" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q32" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R32" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S32" t="n">
-        <v>1571.973013485897</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T32" t="n">
-        <v>1353.616146518192</v>
+        <v>1494.91331855501</v>
       </c>
       <c r="U32" t="n">
-        <v>1353.616146518192</v>
+        <v>1494.91331855501</v>
       </c>
       <c r="V32" t="n">
-        <v>1029.495152973594</v>
+        <v>1494.91331855501</v>
       </c>
       <c r="W32" t="n">
-        <v>1029.495152973594</v>
+        <v>1494.91331855501</v>
       </c>
       <c r="X32" t="n">
-        <v>1029.495152973594</v>
+        <v>1131.496435429044</v>
       </c>
       <c r="Y32" t="n">
-        <v>643.3481151771798</v>
+        <v>1131.496435429044</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>357.2987925473062</v>
+        <v>879.7087746061794</v>
       </c>
       <c r="C33" t="n">
-        <v>357.2987925473062</v>
+        <v>879.7087746061794</v>
       </c>
       <c r="D33" t="n">
-        <v>357.2987925473062</v>
+        <v>718.9286583672111</v>
       </c>
       <c r="E33" t="n">
-        <v>183.7355886687207</v>
+        <v>545.3654544886256</v>
       </c>
       <c r="F33" t="n">
-        <v>183.7355886687207</v>
+        <v>384.9377382058697</v>
       </c>
       <c r="G33" t="n">
-        <v>34.26540371045431</v>
+        <v>235.4675532476033</v>
       </c>
       <c r="H33" t="n">
-        <v>34.26540371045431</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="I33" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J33" t="n">
-        <v>54.25343639154485</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K33" t="n">
         <v>215.1710339715871</v>
@@ -6788,43 +6788,43 @@
         <v>497.8311447175246</v>
       </c>
       <c r="M33" t="n">
-        <v>872.4368259593773</v>
+        <v>678.0453684563939</v>
       </c>
       <c r="N33" t="n">
-        <v>1171.380766676014</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O33" t="n">
-        <v>1484.24530923774</v>
+        <v>1393.850179535331</v>
       </c>
       <c r="P33" t="n">
-        <v>1713.270185522716</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q33" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R33" t="n">
-        <v>1625.424923589264</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="S33" t="n">
-        <v>1446.329267749321</v>
+        <v>1553.283889867495</v>
       </c>
       <c r="T33" t="n">
-        <v>1232.318333641798</v>
+        <v>1553.283889867495</v>
       </c>
       <c r="U33" t="n">
-        <v>992.745132220562</v>
+        <v>1553.283889867495</v>
       </c>
       <c r="V33" t="n">
-        <v>749.6654141241961</v>
+        <v>1553.283889867495</v>
       </c>
       <c r="W33" t="n">
-        <v>480.2668448544874</v>
+        <v>1283.885320597787</v>
       </c>
       <c r="X33" t="n">
-        <v>357.2987925473062</v>
+        <v>1283.885320597787</v>
       </c>
       <c r="Y33" t="n">
-        <v>357.2987925473062</v>
+        <v>1058.244627533114</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C34" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D34" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E34" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F34" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G34" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H34" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I34" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J34" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K34" t="n">
-        <v>42.07125390872751</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L34" t="n">
         <v>105.1473006107386</v>
@@ -6882,28 +6882,28 @@
         <v>334.0166340210667</v>
       </c>
       <c r="R34" t="n">
-        <v>334.0166340210667</v>
+        <v>281.850267533131</v>
       </c>
       <c r="S34" t="n">
-        <v>334.0166340210667</v>
+        <v>281.850267533131</v>
       </c>
       <c r="T34" t="n">
-        <v>334.0166340210667</v>
+        <v>281.850267533131</v>
       </c>
       <c r="U34" t="n">
-        <v>334.0166340210667</v>
+        <v>281.850267533131</v>
       </c>
       <c r="V34" t="n">
-        <v>334.0166340210667</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="W34" t="n">
-        <v>40.7734955469906</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="X34" t="n">
-        <v>40.7734955469906</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="Y34" t="n">
-        <v>40.7734955469906</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1238.385455603727</v>
+        <v>441.5373730438013</v>
       </c>
       <c r="C35" t="n">
-        <v>1238.385455603727</v>
+        <v>441.5373730438013</v>
       </c>
       <c r="D35" t="n">
-        <v>1238.385455603727</v>
+        <v>441.5373730438013</v>
       </c>
       <c r="E35" t="n">
-        <v>863.1542312990443</v>
+        <v>441.5373730438013</v>
       </c>
       <c r="F35" t="n">
-        <v>455.8822619656973</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G35" t="n">
         <v>34.26540371045431</v>
@@ -6940,19 +6940,19 @@
         <v>79.03615234277413</v>
       </c>
       <c r="K35" t="n">
-        <v>253.4009645124895</v>
+        <v>253.4009645124897</v>
       </c>
       <c r="L35" t="n">
-        <v>524.6989948305064</v>
+        <v>524.6989948305068</v>
       </c>
       <c r="M35" t="n">
-        <v>855.4462867779243</v>
+        <v>855.4462867779247</v>
       </c>
       <c r="N35" t="n">
         <v>1184.702979677705</v>
       </c>
       <c r="O35" t="n">
-        <v>1458.701379414585</v>
+        <v>1458.701379414586</v>
       </c>
       <c r="P35" t="n">
         <v>1648.405101797589</v>
@@ -6964,25 +6964,25 @@
         <v>1713.270185522716</v>
       </c>
       <c r="S35" t="n">
-        <v>1713.270185522716</v>
+        <v>1568.96719333773</v>
       </c>
       <c r="T35" t="n">
-        <v>1624.532493400141</v>
+        <v>1568.96719333773</v>
       </c>
       <c r="U35" t="n">
-        <v>1624.532493400141</v>
+        <v>1568.96719333773</v>
       </c>
       <c r="V35" t="n">
-        <v>1624.532493400141</v>
+        <v>1568.96719333773</v>
       </c>
       <c r="W35" t="n">
-        <v>1624.532493400141</v>
+        <v>1568.96719333773</v>
       </c>
       <c r="X35" t="n">
-        <v>1624.532493400141</v>
+        <v>1205.550310211764</v>
       </c>
       <c r="Y35" t="n">
-        <v>1238.385455603727</v>
+        <v>819.4032724153501</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>384.4577942164589</v>
+        <v>276.7452135334007</v>
       </c>
       <c r="C36" t="n">
-        <v>195.0455199494226</v>
+        <v>276.7452135334007</v>
       </c>
       <c r="D36" t="n">
-        <v>34.26540371045431</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="E36" t="n">
-        <v>34.26540371045431</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="F36" t="n">
-        <v>34.26540371045431</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="G36" t="n">
-        <v>34.26540371045431</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="H36" t="n">
-        <v>34.26540371045431</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="I36" t="n">
         <v>34.26540371045431</v>
@@ -7019,22 +7019,22 @@
         <v>54.25343639154485</v>
       </c>
       <c r="K36" t="n">
-        <v>111.1747061710125</v>
+        <v>215.1710339715871</v>
       </c>
       <c r="L36" t="n">
-        <v>393.83481691695</v>
+        <v>497.8311447175246</v>
       </c>
       <c r="M36" t="n">
-        <v>768.4404981588028</v>
+        <v>872.4368259593773</v>
       </c>
       <c r="N36" t="n">
-        <v>1171.380766676014</v>
+        <v>1275.377094476588</v>
       </c>
       <c r="O36" t="n">
-        <v>1484.24530923774</v>
+        <v>1393.850179535332</v>
       </c>
       <c r="P36" t="n">
-        <v>1713.270185522716</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q36" t="n">
         <v>1713.270185522716</v>
@@ -7043,25 +7043,25 @@
         <v>1713.270185522716</v>
       </c>
       <c r="S36" t="n">
-        <v>1713.270185522716</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="T36" t="n">
-        <v>1713.270185522716</v>
+        <v>1320.16359557525</v>
       </c>
       <c r="U36" t="n">
-        <v>1520.620621957445</v>
+        <v>1320.16359557525</v>
       </c>
       <c r="V36" t="n">
-        <v>1277.540903861079</v>
+        <v>1169.828323178021</v>
       </c>
       <c r="W36" t="n">
-        <v>1008.14233459137</v>
+        <v>900.4297539083118</v>
       </c>
       <c r="X36" t="n">
-        <v>788.6343402080663</v>
+        <v>680.9217595250082</v>
       </c>
       <c r="Y36" t="n">
-        <v>562.9936471433939</v>
+        <v>455.2810664603358</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1413.518955212103</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="C37" t="n">
-        <v>1413.518955212103</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="D37" t="n">
-        <v>1413.518955212103</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="E37" t="n">
-        <v>1413.518955212103</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="F37" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G37" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H37" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I37" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J37" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K37" t="n">
-        <v>1421.324805410376</v>
+        <v>42.07125390872751</v>
       </c>
       <c r="L37" t="n">
-        <v>1484.400852112388</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M37" t="n">
-        <v>1559.501589094672</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N37" t="n">
-        <v>1640.832734669482</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O37" t="n">
-        <v>1693.957565080919</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P37" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q37" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R37" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S37" t="n">
-        <v>1636.757824235658</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T37" t="n">
-        <v>1413.518955212103</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U37" t="n">
-        <v>1413.518955212103</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V37" t="n">
-        <v>1413.518955212103</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="W37" t="n">
-        <v>1413.518955212103</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="X37" t="n">
-        <v>1413.518955212103</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="Y37" t="n">
-        <v>1413.518955212103</v>
+        <v>317.7028011151732</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.5533488353749</v>
+        <v>1136.46429933007</v>
       </c>
       <c r="C38" t="n">
-        <v>274.5533488353749</v>
+        <v>782.7213726824148</v>
       </c>
       <c r="D38" t="n">
-        <v>274.5533488353749</v>
+        <v>441.5373730438013</v>
       </c>
       <c r="E38" t="n">
-        <v>274.5533488353749</v>
+        <v>441.5373730438013</v>
       </c>
       <c r="F38" t="n">
-        <v>274.5533488353749</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G38" t="n">
-        <v>274.5533488353749</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H38" t="n">
-        <v>221.7312569219369</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I38" t="n">
         <v>34.26540371045431</v>
       </c>
       <c r="J38" t="n">
-        <v>79.03615234277413</v>
+        <v>79.03615234277379</v>
       </c>
       <c r="K38" t="n">
-        <v>253.4009645124897</v>
+        <v>253.4009645124891</v>
       </c>
       <c r="L38" t="n">
-        <v>524.6989948305068</v>
+        <v>524.6989948305061</v>
       </c>
       <c r="M38" t="n">
-        <v>855.4462867779248</v>
+        <v>855.4462867779239</v>
       </c>
       <c r="N38" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O38" t="n">
-        <v>1458.701379414586</v>
+        <v>1458.701379414585</v>
       </c>
       <c r="P38" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q38" t="n">
+        <v>1713.270185522715</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1713.270185522715</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1713.270185522715</v>
+      </c>
+      <c r="T38" t="n">
         <v>1713.270185522716</v>
       </c>
-      <c r="R38" t="n">
-        <v>1607.629543432273</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1410.901923140829</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1192.545056173125</v>
-      </c>
       <c r="U38" t="n">
-        <v>939.9839017999395</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="V38" t="n">
-        <v>615.8629082553415</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="W38" t="n">
-        <v>274.5533488353749</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="X38" t="n">
-        <v>274.5533488353749</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.5533488353749</v>
+        <v>1514.330198701619</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>577.1073577817297</v>
+        <v>504.9434211904448</v>
       </c>
       <c r="C39" t="n">
-        <v>387.6950835146934</v>
+        <v>504.9434211904448</v>
       </c>
       <c r="D39" t="n">
-        <v>226.9149672757251</v>
+        <v>344.1633049514766</v>
       </c>
       <c r="E39" t="n">
-        <v>226.9149672757251</v>
+        <v>344.1633049514766</v>
       </c>
       <c r="F39" t="n">
-        <v>226.9149672757251</v>
+        <v>183.7355886687207</v>
       </c>
       <c r="G39" t="n">
-        <v>226.9149672757251</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H39" t="n">
-        <v>107.4125113225542</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I39" t="n">
         <v>34.26540371045431</v>
@@ -7256,49 +7256,49 @@
         <v>54.25343639154485</v>
       </c>
       <c r="K39" t="n">
-        <v>111.1747061710125</v>
+        <v>215.1710339715871</v>
       </c>
       <c r="L39" t="n">
-        <v>393.83481691695</v>
+        <v>497.8311447175246</v>
       </c>
       <c r="M39" t="n">
-        <v>768.4404981588028</v>
+        <v>872.4368259593773</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.380766676014</v>
+        <v>1275.377094476588</v>
       </c>
       <c r="O39" t="n">
-        <v>1484.24530923774</v>
+        <v>1393.850179535332</v>
       </c>
       <c r="P39" t="n">
-        <v>1713.270185522716</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q39" t="n">
         <v>1713.270185522716</v>
       </c>
       <c r="R39" t="n">
-        <v>1713.270185522716</v>
+        <v>1625.424923589264</v>
       </c>
       <c r="S39" t="n">
-        <v>1713.270185522716</v>
+        <v>1446.329267749321</v>
       </c>
       <c r="T39" t="n">
-        <v>1713.270185522716</v>
+        <v>1232.318333641798</v>
       </c>
       <c r="U39" t="n">
-        <v>1713.270185522716</v>
+        <v>1232.318333641798</v>
       </c>
       <c r="V39" t="n">
-        <v>1470.19046742635</v>
+        <v>989.2386155454324</v>
       </c>
       <c r="W39" t="n">
-        <v>1200.791898156641</v>
+        <v>719.8400462757237</v>
       </c>
       <c r="X39" t="n">
-        <v>981.2839037733372</v>
+        <v>683.4792741173799</v>
       </c>
       <c r="Y39" t="n">
-        <v>755.6432107086648</v>
+        <v>683.4792741173799</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1413.518955212103</v>
+        <v>202.4039703488102</v>
       </c>
       <c r="C40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="D40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="E40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K40" t="n">
-        <v>1421.324805410376</v>
+        <v>42.07125390872751</v>
       </c>
       <c r="L40" t="n">
-        <v>1484.400852112388</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M40" t="n">
-        <v>1559.501589094672</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N40" t="n">
-        <v>1640.832734669482</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O40" t="n">
-        <v>1693.957565080919</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P40" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q40" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R40" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S40" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.055708503579</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U40" t="n">
-        <v>1413.518955212103</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V40" t="n">
-        <v>1413.518955212103</v>
+        <v>202.4039703488102</v>
       </c>
       <c r="W40" t="n">
-        <v>1413.518955212103</v>
+        <v>202.4039703488102</v>
       </c>
       <c r="X40" t="n">
-        <v>1413.518955212103</v>
+        <v>202.4039703488102</v>
       </c>
       <c r="Y40" t="n">
-        <v>1413.518955212103</v>
+        <v>202.4039703488102</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>711.1057395766107</v>
+        <v>501.0693816843105</v>
       </c>
       <c r="C41" t="n">
-        <v>711.1057395766107</v>
+        <v>501.0693816843105</v>
       </c>
       <c r="D41" t="n">
-        <v>369.9217399379973</v>
+        <v>501.0693816843105</v>
       </c>
       <c r="E41" t="n">
-        <v>369.9217399379973</v>
+        <v>501.0693816843105</v>
       </c>
       <c r="F41" t="n">
-        <v>369.9217399379973</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="G41" t="n">
-        <v>369.9217399379973</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="H41" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I41" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J41" t="n">
-        <v>79.03615234277379</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K41" t="n">
-        <v>253.4009645124891</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L41" t="n">
-        <v>524.6989948305061</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M41" t="n">
-        <v>855.4462867779239</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N41" t="n">
         <v>1184.702979677704</v>
@@ -7435,28 +7435,28 @@
         <v>1713.270185522715</v>
       </c>
       <c r="R41" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S41" t="n">
-        <v>1475.118676744574</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T41" t="n">
-        <v>1475.118676744574</v>
+        <v>1494.91331855501</v>
       </c>
       <c r="U41" t="n">
-        <v>1475.118676744574</v>
+        <v>1242.352164181825</v>
       </c>
       <c r="V41" t="n">
-        <v>1475.118676744574</v>
+        <v>1242.352164181825</v>
       </c>
       <c r="W41" t="n">
-        <v>1475.118676744574</v>
+        <v>1242.352164181825</v>
       </c>
       <c r="X41" t="n">
-        <v>1475.118676744574</v>
+        <v>878.9352810558594</v>
       </c>
       <c r="Y41" t="n">
-        <v>1088.97163894816</v>
+        <v>878.9352810558594</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1069.121048873216</v>
+        <v>639.7206916790226</v>
       </c>
       <c r="C42" t="n">
-        <v>879.7087746061795</v>
+        <v>450.3084174119863</v>
       </c>
       <c r="D42" t="n">
-        <v>718.9286583672113</v>
+        <v>289.528301173018</v>
       </c>
       <c r="E42" t="n">
-        <v>545.3654544886257</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="F42" t="n">
-        <v>384.9377382058698</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="G42" t="n">
-        <v>235.4675532476034</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="H42" t="n">
         <v>115.9650972944325</v>
       </c>
       <c r="I42" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J42" t="n">
-        <v>34.26540371045431</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K42" t="n">
-        <v>195.1830012904965</v>
+        <v>215.1710339715871</v>
       </c>
       <c r="L42" t="n">
-        <v>477.843112036434</v>
+        <v>303.4396872145412</v>
       </c>
       <c r="M42" t="n">
-        <v>852.4487932782868</v>
+        <v>678.0453684563939</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.380766676014</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O42" t="n">
-        <v>1484.24530923774</v>
+        <v>1393.850179535331</v>
       </c>
       <c r="P42" t="n">
-        <v>1713.270185522716</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q42" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R42" t="n">
-        <v>1713.270185522716</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="S42" t="n">
-        <v>1713.270185522716</v>
+        <v>1446.329267749321</v>
       </c>
       <c r="T42" t="n">
-        <v>1713.270185522716</v>
+        <v>1446.329267749321</v>
       </c>
       <c r="U42" t="n">
-        <v>1581.599336239291</v>
+        <v>1446.329267749321</v>
       </c>
       <c r="V42" t="n">
-        <v>1338.519618142925</v>
+        <v>1313.295806940339</v>
       </c>
       <c r="W42" t="n">
-        <v>1069.121048873216</v>
+        <v>1043.89723767063</v>
       </c>
       <c r="X42" t="n">
-        <v>1069.121048873216</v>
+        <v>1043.89723767063</v>
       </c>
       <c r="Y42" t="n">
-        <v>1069.121048873216</v>
+        <v>818.2565446059577</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K43" t="n">
-        <v>42.07125390872751</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L43" t="n">
         <v>105.1473006107386</v>
@@ -7593,28 +7593,28 @@
         <v>334.0166340210667</v>
       </c>
       <c r="R43" t="n">
-        <v>157.8174821267017</v>
+        <v>257.5042727340092</v>
       </c>
       <c r="S43" t="n">
-        <v>157.8174821267017</v>
+        <v>257.5042727340092</v>
       </c>
       <c r="T43" t="n">
-        <v>157.8174821267017</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="U43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="V43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="W43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="X43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>683.445325924449</v>
+        <v>750.6806276537507</v>
       </c>
       <c r="C44" t="n">
-        <v>683.445325924449</v>
+        <v>750.6806276537507</v>
       </c>
       <c r="D44" t="n">
-        <v>683.445325924449</v>
+        <v>409.4966280151373</v>
       </c>
       <c r="E44" t="n">
-        <v>683.445325924449</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F44" t="n">
-        <v>683.445325924449</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G44" t="n">
-        <v>557.3875931494798</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H44" t="n">
-        <v>221.7312569219369</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I44" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J44" t="n">
-        <v>79.03615234277413</v>
+        <v>79.03615234277376</v>
       </c>
       <c r="K44" t="n">
-        <v>253.4009645124897</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L44" t="n">
-        <v>524.6989948305068</v>
+        <v>524.6989948305059</v>
       </c>
       <c r="M44" t="n">
-        <v>855.4462867779247</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N44" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O44" t="n">
-        <v>1458.701379414586</v>
+        <v>1458.701379414585</v>
       </c>
       <c r="P44" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q44" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R44" t="n">
-        <v>1607.629543432273</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S44" t="n">
-        <v>1410.901923140829</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T44" t="n">
-        <v>1410.901923140829</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U44" t="n">
-        <v>1410.901923140829</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="V44" t="n">
-        <v>1410.901923140829</v>
+        <v>1389.149191978117</v>
       </c>
       <c r="W44" t="n">
-        <v>1069.592363720863</v>
+        <v>1389.149191978117</v>
       </c>
       <c r="X44" t="n">
-        <v>1069.592363720863</v>
+        <v>1025.732308852151</v>
       </c>
       <c r="Y44" t="n">
-        <v>683.445325924449</v>
+        <v>1025.732308852151</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>35.11815740651144</v>
+        <v>639.7206916790226</v>
       </c>
       <c r="C45" t="n">
-        <v>35.11815740651144</v>
+        <v>450.3084174119863</v>
       </c>
       <c r="D45" t="n">
-        <v>34.26540371045431</v>
+        <v>289.528301173018</v>
       </c>
       <c r="E45" t="n">
-        <v>34.26540371045431</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="F45" t="n">
-        <v>34.26540371045431</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="G45" t="n">
-        <v>34.26540371045431</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="H45" t="n">
-        <v>34.26540371045431</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="I45" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J45" t="n">
-        <v>34.26540371045431</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K45" t="n">
-        <v>195.1830012904965</v>
+        <v>215.1710339715871</v>
       </c>
       <c r="L45" t="n">
-        <v>477.843112036434</v>
+        <v>303.4396872145412</v>
       </c>
       <c r="M45" t="n">
-        <v>852.4487932782868</v>
+        <v>678.0453684563939</v>
       </c>
       <c r="N45" t="n">
-        <v>1255.389061795498</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O45" t="n">
-        <v>1484.24530923774</v>
+        <v>1393.850179535331</v>
       </c>
       <c r="P45" t="n">
-        <v>1713.270185522716</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q45" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R45" t="n">
-        <v>1625.424923589264</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S45" t="n">
-        <v>1446.329267749321</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T45" t="n">
-        <v>1232.318333641798</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U45" t="n">
-        <v>992.745132220562</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="V45" t="n">
-        <v>749.6654141241961</v>
+        <v>1470.190467426349</v>
       </c>
       <c r="W45" t="n">
-        <v>480.2668448544874</v>
+        <v>1200.79189815664</v>
       </c>
       <c r="X45" t="n">
-        <v>260.7588504711838</v>
+        <v>981.2839037733368</v>
       </c>
       <c r="Y45" t="n">
-        <v>35.11815740651144</v>
+        <v>755.6432107086644</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>334.0166340210667</v>
+        <v>202.4039703488102</v>
       </c>
       <c r="C46" t="n">
-        <v>165.8780673827108</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D46" t="n">
-        <v>165.8780673827108</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K46" t="n">
-        <v>42.07125390872751</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L46" t="n">
         <v>105.1473006107386</v>
@@ -7827,31 +7827,31 @@
         <v>334.0166340210667</v>
       </c>
       <c r="Q46" t="n">
-        <v>334.0166340210667</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="R46" t="n">
-        <v>334.0166340210667</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="S46" t="n">
-        <v>334.0166340210667</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="T46" t="n">
-        <v>334.0166340210667</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="U46" t="n">
-        <v>334.0166340210667</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="V46" t="n">
-        <v>334.0166340210667</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="W46" t="n">
-        <v>334.0166340210667</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="X46" t="n">
-        <v>334.0166340210667</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="Y46" t="n">
-        <v>334.0166340210667</v>
+        <v>202.4039703488102</v>
       </c>
     </row>
   </sheetData>
@@ -8060,19 +8060,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>168.166555548718</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L3" t="n">
-        <v>169.0363433314465</v>
+        <v>169.2041989925474</v>
       </c>
       <c r="M3" t="n">
-        <v>176.7782950813962</v>
+        <v>176.9203908159872</v>
       </c>
       <c r="N3" t="n">
-        <v>163.7537581727914</v>
+        <v>163.7537581727915</v>
       </c>
       <c r="O3" t="n">
-        <v>177.484287653347</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P3" t="n">
         <v>166.9656464766077</v>
@@ -8306,10 +8306,10 @@
         <v>176.9203908159872</v>
       </c>
       <c r="N6" t="n">
-        <v>163.7537581727915</v>
+        <v>163.6116624382006</v>
       </c>
       <c r="O6" t="n">
-        <v>177.3421919187561</v>
+        <v>177.484287653347</v>
       </c>
       <c r="P6" t="n">
         <v>163.4487770454829</v>
@@ -8537,13 +8537,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L9" t="n">
-        <v>172.5532127625713</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
         <v>173.5713770459633</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>163.7537581727915</v>
       </c>
       <c r="O9" t="n">
         <v>177.484287653347</v>
@@ -8771,7 +8771,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>66.32667782599486</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.82187063221568</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9008,7 +9008,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>66.32667782599395</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9026,7 +9026,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.82187063221568</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9482,7 +9482,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>66.32667782599395</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9497,10 +9497,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786793</v>
+        <v>10.00886649990816</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.82187063221568</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9719,13 +9719,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>66.32667782599441</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>301.77688131</v>
+        <v>125.6118057323304</v>
       </c>
       <c r="N24" t="n">
         <v>310.6138585746227</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.82187063221568</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -10193,7 +10193,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>8.830445725522452</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10211,7 +10211,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.3181027326875</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10436,7 +10436,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
-        <v>301.77688131</v>
+        <v>105.4218737312288</v>
       </c>
       <c r="N33" t="n">
         <v>310.6138585746227</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.82187063221568</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10667,7 +10667,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>66.32667782599486</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.82187063221568</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10904,7 +10904,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>66.32667782599486</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.82187063221568</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11150,7 +11150,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N42" t="n">
-        <v>225.7569948175682</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O42" t="n">
         <v>255.2227828913207</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.82187063221568</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.82187063221568</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15.72802266348693</v>
+        <v>15.72802266348691</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23263,19 +23263,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>47.75508492483669</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>285.4782886479241</v>
       </c>
       <c r="X11" t="n">
         <v>359.7827142947061</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>56.64397535039424</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>118.3074313936392</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,19 +23393,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>80.03847048904186</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -23439,7 +23439,7 @@
         <v>145.4619076189266</v>
       </c>
       <c r="J13" t="n">
-        <v>25.55861665566665</v>
+        <v>74.65185754899971</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.22331673875185</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.4371603754213</v>
       </c>
       <c r="S13" t="n">
         <v>224.2008427698061</v>
@@ -23472,13 +23472,13 @@
         <v>221.0064803333194</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6213857585613</v>
+        <v>282.1783748403903</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>221.9194554082425</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>191.7940509192967</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>215.8754619109368</v>
       </c>
       <c r="X14" t="n">
         <v>359.7827142947061</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>177.3046992815431</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3889706035603</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>183.1348281792896</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23670,13 +23670,13 @@
         <v>168.0559694104069</v>
       </c>
       <c r="H16" t="n">
-        <v>160.0914904239654</v>
+        <v>112.4267903408802</v>
       </c>
       <c r="I16" t="n">
         <v>145.4619076189266</v>
       </c>
       <c r="J16" t="n">
-        <v>25.55861665566669</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.22331673875185</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>47.75508492483715</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>340.7000953972745</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S17" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.1732982980278</v>
@@ -23791,13 +23791,13 @@
         <v>250.0355428294531</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>382.2855674184499</v>
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>175.9062682385696</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>118.3074313936392</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>12.83950626425838</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
-        <v>166.4571809719723</v>
+        <v>8.630345182912777</v>
       </c>
       <c r="D19" t="n">
         <v>145.1826502507107</v>
@@ -23901,7 +23901,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F19" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>168.0559694104069</v>
@@ -23955,10 +23955,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y19" t="n">
-        <v>142.3070102149047</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="20">
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>223.3869918775701</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>403.1992496400135</v>
@@ -23986,7 +23986,7 @@
         <v>417.4006896726905</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I20" t="n">
         <v>185.5911946793677</v>
@@ -24031,13 +24031,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0302940128364</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -24050,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U21" t="n">
-        <v>217.8621114595319</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>70.07698915766417</v>
       </c>
     </row>
     <row r="22">
@@ -24135,13 +24135,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F22" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>12.97839261512573</v>
+        <v>168.0559694104069</v>
       </c>
       <c r="H22" t="n">
         <v>160.0914904239654</v>
@@ -24180,7 +24180,7 @@
         <v>224.2008427698061</v>
       </c>
       <c r="T22" t="n">
-        <v>221.0064803333194</v>
+        <v>141.3940351399816</v>
       </c>
       <c r="U22" t="n">
         <v>288.6213857585613</v>
@@ -24195,7 +24195,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,22 +24211,22 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>93.58457585491476</v>
+        <v>156.7469047763792</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>417.4006896726905</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S23" t="n">
         <v>194.7603440885288</v>
@@ -24268,13 +24268,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -24287,16 +24287,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>87.27231818859076</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.9668093141174</v>
+        <v>57.43619190678768</v>
       </c>
       <c r="S24" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>211.8708247664476</v>
@@ -24344,10 +24344,10 @@
         <v>237.1774694070239</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>168.0559694104069</v>
       </c>
       <c r="H25" t="n">
-        <v>108.446787600909</v>
+        <v>160.0914904239654</v>
       </c>
       <c r="I25" t="n">
         <v>145.4619076189266</v>
@@ -24411,7 +24411,7 @@
         <v>73.22331673875185</v>
       </c>
       <c r="R25" t="n">
-        <v>174.4371603754213</v>
+        <v>94.82471518208349</v>
       </c>
       <c r="S25" t="n">
         <v>224.2008427698061</v>
@@ -24423,7 +24423,7 @@
         <v>288.6213857585613</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
         <v>290.3107070893353</v>
@@ -24432,7 +24432,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
@@ -24451,19 +24451,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H26" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>126.3889544461259</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U26" t="n">
         <v>250.0355428294531</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>62.73124097858778</v>
       </c>
       <c r="Y26" t="n">
         <v>382.2855674184499</v>
@@ -24524,16 +24524,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>111.6942971811221</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>147.9754831086837</v>
@@ -24542,7 +24542,7 @@
         <v>118.3074313936392</v>
       </c>
       <c r="I27" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,22 +24575,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>189.5994685479429</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24603,7 +24603,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -24618,13 +24618,13 @@
         <v>168.0559694104069</v>
       </c>
       <c r="H28" t="n">
-        <v>83.45153758438552</v>
+        <v>29.79495338843148</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>145.4619076189266</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>74.65185754899971</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
@@ -24691,13 +24691,13 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>167.4504740827427</v>
+        <v>307.0993166924932</v>
       </c>
       <c r="I29" t="n">
         <v>185.5911946793677</v>
@@ -24733,22 +24733,22 @@
         <v>194.7603440885288</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -24758,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>46.92954602692274</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24779,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>86.9668093141174</v>
       </c>
       <c r="S30" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>211.8708247664476</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>44.07301617325953</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -24840,10 +24840,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>14.88611321517681</v>
+        <v>114.812478148916</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -24897,7 +24897,7 @@
         <v>288.6213857585613</v>
       </c>
       <c r="V31" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>290.3107070893353</v>
@@ -24919,25 +24919,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>153.3166555860461</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S32" t="n">
-        <v>54.87614377207808</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>250.0355428294531</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>105.885075896993</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>95.57454265536121</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>171.1739097467972</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -25122,7 +25122,7 @@
         <v>73.22331673875185</v>
       </c>
       <c r="R34" t="n">
-        <v>174.4371603754213</v>
+        <v>122.792457552365</v>
       </c>
       <c r="S34" t="n">
         <v>224.2008427698061</v>
@@ -25134,10 +25134,10 @@
         <v>288.6213857585613</v>
       </c>
       <c r="V34" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>350.2054973811788</v>
@@ -25162,13 +25162,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H35" t="n">
         <v>332.2997728652675</v>
@@ -25204,10 +25204,10 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S35" t="n">
-        <v>194.7603440885288</v>
+        <v>51.90038182539297</v>
       </c>
       <c r="T35" t="n">
-        <v>128.3229830966792</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U35" t="n">
         <v>250.0355428294531</v>
@@ -25219,7 +25219,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>118.3074313936392</v>
       </c>
       <c r="I36" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,16 +25283,16 @@
         <v>86.9668093141174</v>
       </c>
       <c r="S36" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>46.45440147740573</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>91.81700124214498</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>168.0559694104069</v>
@@ -25362,16 +25362,16 @@
         <v>174.4371603754213</v>
       </c>
       <c r="S37" t="n">
-        <v>148.4536050956192</v>
+        <v>224.2008427698061</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.0064803333194</v>
       </c>
       <c r="U37" t="n">
         <v>288.6213857585613</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>228.9583206076153</v>
       </c>
       <c r="W37" t="n">
         <v>290.3107070893353</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>417.4006896726905</v>
       </c>
       <c r="H38" t="n">
-        <v>280.0059018709638</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>185.3349804655642</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25481,16 +25481,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I39" t="n">
-        <v>8.467060112159501</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.1774694070239</v>
@@ -25535,10 +25535,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>181.3157500027102</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -25551,7 +25551,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25602,13 +25602,13 @@
         <v>224.2008427698061</v>
       </c>
       <c r="T40" t="n">
-        <v>212.8741480843745</v>
+        <v>221.0064803333194</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>114.812478148916</v>
       </c>
       <c r="W40" t="n">
         <v>290.3107070893353</v>
@@ -25633,13 +25633,13 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>273.3630843111633</v>
       </c>
       <c r="G41" t="n">
         <v>417.4006896726905</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S41" t="n">
-        <v>63.57458606770717</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T41" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25693,10 +25693,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>211.8708247664476</v>
       </c>
       <c r="U42" t="n">
-        <v>106.8233286164332</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>108.9457947145103</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25833,16 +25833,16 @@
         <v>73.22331673875185</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>98.68992270123439</v>
       </c>
       <c r="S43" t="n">
         <v>224.2008427698061</v>
       </c>
       <c r="T43" t="n">
-        <v>221.0064803333194</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>166.3048281264764</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>101.7860759914169</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>292.603534225471</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T44" t="n">
         <v>216.1732982980278</v>
@@ -25924,16 +25924,16 @@
         <v>250.0355428294531</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>61.9872005583204</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>158.328088917482</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -25964,7 +25964,7 @@
         <v>118.3074313936392</v>
       </c>
       <c r="I45" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>11.37960417669109</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.22331673875185</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>174.4371603754213</v>
@@ -26091,7 +26091,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.1412728141684</v>
+        <v>160.0680525173864</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>550635.7879629121</v>
+        <v>550635.787962912</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>550635.7879629118</v>
+        <v>550635.787962912</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>550635.7879629122</v>
+        <v>550635.7879629119</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>550635.787962912</v>
+        <v>550635.7879629119</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>550635.7879629121</v>
+        <v>550635.7879629118</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>550635.7879629121</v>
+        <v>550635.787962912</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>550635.7879629119</v>
+        <v>550635.7879629121</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>550635.787962912</v>
+        <v>550635.7879629119</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>550635.7879629119</v>
+        <v>550635.7879629118</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573603.2888654398</v>
+        <v>573603.2888654397</v>
       </c>
       <c r="C2" t="n">
         <v>573603.2888654398</v>
       </c>
       <c r="D2" t="n">
-        <v>573603.2888654397</v>
+        <v>573603.2888654398</v>
       </c>
       <c r="E2" t="n">
-        <v>325375.6928871751</v>
+        <v>325375.6928871749</v>
       </c>
       <c r="F2" t="n">
         <v>325375.6928871748</v>
       </c>
       <c r="G2" t="n">
-        <v>325375.6928871749</v>
+        <v>325375.692887175</v>
       </c>
       <c r="H2" t="n">
-        <v>325375.692887175</v>
+        <v>325375.6928871752</v>
       </c>
       <c r="I2" t="n">
         <v>325375.692887175</v>
       </c>
       <c r="J2" t="n">
+        <v>325375.692887175</v>
+      </c>
+      <c r="K2" t="n">
         <v>325375.6928871749</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>325375.692887175</v>
-      </c>
-      <c r="L2" t="n">
-        <v>325375.6928871748</v>
       </c>
       <c r="M2" t="n">
         <v>325375.6928871752</v>
       </c>
       <c r="N2" t="n">
-        <v>325375.6928871749</v>
+        <v>325375.6928871751</v>
       </c>
       <c r="O2" t="n">
-        <v>325375.6928871751</v>
+        <v>325375.6928871747</v>
       </c>
       <c r="P2" t="n">
-        <v>325375.6928871748</v>
+        <v>325375.6928871752</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1178.583834366815</v>
+        <v>1178.583834366837</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>105862.0278985367</v>
+        <v>105862.0278985366</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>382300.9666476649</v>
       </c>
       <c r="E4" t="n">
-        <v>321.261534709925</v>
+        <v>321.2615347099249</v>
       </c>
       <c r="F4" t="n">
         <v>321.2615347099249</v>
       </c>
       <c r="G4" t="n">
-        <v>321.261534709925</v>
+        <v>321.2615347099249</v>
       </c>
       <c r="H4" t="n">
         <v>321.2615347099249</v>
@@ -26441,13 +26441,13 @@
         <v>321.261534709925</v>
       </c>
       <c r="J4" t="n">
-        <v>321.2615347099251</v>
+        <v>321.261534709925</v>
       </c>
       <c r="K4" t="n">
-        <v>321.2615347099249</v>
+        <v>321.261534709925</v>
       </c>
       <c r="L4" t="n">
-        <v>321.2615347099251</v>
+        <v>321.261534709925</v>
       </c>
       <c r="M4" t="n">
         <v>321.261534709925</v>
@@ -26456,10 +26456,10 @@
         <v>321.261534709925</v>
       </c>
       <c r="O4" t="n">
-        <v>321.261534709925</v>
+        <v>321.2615347099249</v>
       </c>
       <c r="P4" t="n">
-        <v>321.2615347099251</v>
+        <v>321.2615347099249</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>36042.35550341867</v>
       </c>
       <c r="H5" t="n">
-        <v>36042.35550341866</v>
+        <v>36042.35550341867</v>
       </c>
       <c r="I5" t="n">
         <v>36042.35550341867</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156282.3127219957</v>
+        <v>156251.0139568952</v>
       </c>
       <c r="C6" t="n">
-        <v>157460.8965563625</v>
+        <v>157429.5977912622</v>
       </c>
       <c r="D6" t="n">
-        <v>157460.8965563624</v>
+        <v>157429.5977912622</v>
       </c>
       <c r="E6" t="n">
-        <v>-206381.4530699212</v>
+        <v>-215959.967064955</v>
       </c>
       <c r="F6" t="n">
-        <v>289012.0758490462</v>
+        <v>279433.5618540126</v>
       </c>
       <c r="G6" t="n">
-        <v>289012.0758490463</v>
+        <v>279433.5618540128</v>
       </c>
       <c r="H6" t="n">
-        <v>289012.0758490463</v>
+        <v>279433.561854013</v>
       </c>
       <c r="I6" t="n">
-        <v>289012.0758490464</v>
+        <v>279433.5618540128</v>
       </c>
       <c r="J6" t="n">
-        <v>288091.9080636091</v>
+        <v>278513.3940685756</v>
       </c>
       <c r="K6" t="n">
-        <v>289012.0758490464</v>
+        <v>279433.5618540127</v>
       </c>
       <c r="L6" t="n">
-        <v>289012.0758490462</v>
+        <v>279433.5618540128</v>
       </c>
       <c r="M6" t="n">
-        <v>183150.0479505099</v>
+        <v>173571.5339554763</v>
       </c>
       <c r="N6" t="n">
-        <v>289012.0758490463</v>
+        <v>279433.561854013</v>
       </c>
       <c r="O6" t="n">
-        <v>289012.0758490465</v>
+        <v>279433.5618540125</v>
       </c>
       <c r="P6" t="n">
-        <v>289012.0758490462</v>
+        <v>279433.561854013</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.516869431124789</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="C4" t="n">
         <v>3.516869431124803</v>
@@ -26798,7 +26798,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="E4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.3175463806788</v>
       </c>
       <c r="F4" t="n">
         <v>428.3175463806787</v>
@@ -26807,19 +26807,19 @@
         <v>428.3175463806788</v>
       </c>
       <c r="H4" t="n">
-        <v>428.3175463806787</v>
+        <v>428.3175463806788</v>
       </c>
       <c r="I4" t="n">
         <v>428.3175463806788</v>
       </c>
       <c r="J4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.3175463806788</v>
       </c>
       <c r="K4" t="n">
         <v>428.3175463806788</v>
       </c>
       <c r="L4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.3175463806788</v>
       </c>
       <c r="M4" t="n">
         <v>428.3175463806789</v>
@@ -26828,10 +26828,10 @@
         <v>428.3175463806789</v>
       </c>
       <c r="O4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.3175463806788</v>
       </c>
       <c r="P4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.3175463806788</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.516869431124789</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>424.800676949554</v>
+        <v>424.8006769495539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.800676949554</v>
+        <v>424.8006769495539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.516869431124789</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.800676949554</v>
+        <v>424.8006769495539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F2" t="n">
-        <v>399.8223516122475</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27417,7 +27417,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.96130047619883</v>
+        <v>33.78365208844627</v>
       </c>
       <c r="P2" t="n">
         <v>73.5786919263081</v>
@@ -27460,10 +27460,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C3" t="n">
-        <v>187.5181515243659</v>
+        <v>184.0012820932411</v>
       </c>
       <c r="D3" t="n">
-        <v>156.0746564816438</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E3" t="n">
         <v>171.8275718397997</v>
@@ -27472,7 +27472,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G3" t="n">
-        <v>148.9622183950918</v>
+        <v>145.445348963967</v>
       </c>
       <c r="H3" t="n">
         <v>127.8372169228968</v>
@@ -27502,13 +27502,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>31.13081250099127</v>
+        <v>31.13081250099125</v>
       </c>
       <c r="R3" t="n">
-        <v>144.7140833671754</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S3" t="n">
-        <v>192.1160050168152</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T3" t="n">
         <v>215.8480604164874</v>
@@ -27523,7 +27523,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X3" t="n">
-        <v>217.3129144394706</v>
+        <v>214.2152558445359</v>
       </c>
       <c r="Y3" t="n">
         <v>223.3842861340256</v>
@@ -27627,7 +27627,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F5" t="n">
-        <v>399.8223516122474</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27678,7 +27678,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W5" t="n">
-        <v>337.8964638257669</v>
+        <v>337.7188154380143</v>
       </c>
       <c r="X5" t="n">
         <v>359.7827142947061</v>
@@ -27700,22 +27700,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D6" t="n">
-        <v>159.1723150765785</v>
+        <v>156.0746564816438</v>
       </c>
       <c r="E6" t="n">
-        <v>171.8275718397997</v>
+        <v>168.3107024086749</v>
       </c>
       <c r="F6" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>145.445348963967</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H6" t="n">
-        <v>124.320347491772</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I6" t="n">
-        <v>114.855819447717</v>
+        <v>111.3389500165922</v>
       </c>
       <c r="J6" t="n">
         <v>73.03491363274843</v>
@@ -27739,7 +27739,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.55002333718133</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R6" t="n">
         <v>148.2309527983001</v>
@@ -27748,7 +27748,7 @@
         <v>195.63287444794</v>
       </c>
       <c r="T6" t="n">
-        <v>212.3311909853626</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U6" t="n">
         <v>237.2423862021824</v>
@@ -27760,7 +27760,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X6" t="n">
-        <v>217.3129144394706</v>
+        <v>213.7960450083458</v>
       </c>
       <c r="Y6" t="n">
         <v>223.3842861340256</v>
@@ -27864,7 +27864,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F8" t="n">
-        <v>399.8223516122474</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
-        <v>236.785106778059</v>
+        <v>236.6074583903064</v>
       </c>
       <c r="T8" t="n">
         <v>224.246294399988</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.7504943976657</v>
+        <v>173.652835802731</v>
       </c>
       <c r="C9" t="n">
         <v>187.5181515243659</v>
@@ -27940,16 +27940,16 @@
         <v>155.6554456454537</v>
       </c>
       <c r="E9" t="n">
-        <v>168.3107024086749</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>155.3065696888035</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9622183950918</v>
+        <v>145.445348963967</v>
       </c>
       <c r="H9" t="n">
-        <v>124.739558327962</v>
+        <v>124.320347491772</v>
       </c>
       <c r="I9" t="n">
         <v>114.855819447717</v>
@@ -31858,10 +31858,10 @@
         <v>234.7694257972916</v>
       </c>
       <c r="P12" t="n">
-        <v>188.4231618405162</v>
+        <v>83.3763660823597</v>
       </c>
       <c r="Q12" t="n">
-        <v>125.9558937527306</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R12" t="n">
         <v>61.26414348418275</v>
@@ -32077,10 +32077,10 @@
         <v>33.97312279957858</v>
       </c>
       <c r="J15" t="n">
-        <v>93.22484563384998</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K15" t="n">
-        <v>159.3361098231955</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>214.2470629545398</v>
@@ -32098,7 +32098,7 @@
         <v>188.4231618405162</v>
       </c>
       <c r="Q15" t="n">
-        <v>125.9558937527306</v>
+        <v>109.1269279982561</v>
       </c>
       <c r="R15" t="n">
         <v>61.26414348418275</v>
@@ -32323,10 +32323,10 @@
         <v>214.2470629545398</v>
       </c>
       <c r="M18" t="n">
-        <v>53.66120950806376</v>
+        <v>250.0162170868349</v>
       </c>
       <c r="N18" t="n">
-        <v>256.633402406651</v>
+        <v>60.27839482787991</v>
       </c>
       <c r="O18" t="n">
         <v>234.7694257972916</v>
@@ -32788,7 +32788,7 @@
         <v>33.97312279957858</v>
       </c>
       <c r="J24" t="n">
-        <v>93.22484563384998</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K24" t="n">
         <v>159.3361098231955</v>
@@ -33034,7 +33034,7 @@
         <v>214.2470629545398</v>
       </c>
       <c r="M27" t="n">
-        <v>144.9694213286788</v>
+        <v>144.9694213286783</v>
       </c>
       <c r="N27" t="n">
         <v>256.633402406651</v>
@@ -33262,7 +33262,7 @@
         <v>33.97312279957858</v>
       </c>
       <c r="J30" t="n">
-        <v>93.22484563384998</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K30" t="n">
         <v>159.3361098231955</v>
@@ -33277,7 +33277,7 @@
         <v>256.633402406651</v>
       </c>
       <c r="O30" t="n">
-        <v>234.7694257972916</v>
+        <v>58.60435021962218</v>
       </c>
       <c r="P30" t="n">
         <v>188.4231618405162</v>
@@ -33511,7 +33511,7 @@
         <v>250.0162170868349</v>
       </c>
       <c r="N33" t="n">
-        <v>151.5866066484949</v>
+        <v>256.633402406651</v>
       </c>
       <c r="O33" t="n">
         <v>234.7694257972916</v>
@@ -33751,7 +33751,7 @@
         <v>256.633402406651</v>
       </c>
       <c r="O36" t="n">
-        <v>234.7694257972916</v>
+        <v>38.41441821852085</v>
       </c>
       <c r="P36" t="n">
         <v>188.4231618405162</v>
@@ -33988,7 +33988,7 @@
         <v>256.633402406651</v>
       </c>
       <c r="O39" t="n">
-        <v>234.7694257972916</v>
+        <v>38.41441821852085</v>
       </c>
       <c r="P39" t="n">
         <v>188.4231618405162</v>
@@ -34210,13 +34210,13 @@
         <v>33.97312279957858</v>
       </c>
       <c r="J42" t="n">
-        <v>73.03491363274843</v>
+        <v>93.22484563384998</v>
       </c>
       <c r="K42" t="n">
         <v>159.3361098231955</v>
       </c>
       <c r="L42" t="n">
-        <v>214.2470629545398</v>
+        <v>17.89205537576869</v>
       </c>
       <c r="M42" t="n">
         <v>250.0162170868349</v>
@@ -34374,7 +34374,7 @@
         <v>234.5894638274638</v>
       </c>
       <c r="L44" t="n">
-        <v>291.028973697336</v>
+        <v>291.0289736973358</v>
       </c>
       <c r="M44" t="n">
         <v>323.8258085181777</v>
@@ -34447,13 +34447,13 @@
         <v>33.97312279957858</v>
       </c>
       <c r="J45" t="n">
-        <v>73.03491363274843</v>
+        <v>93.22484563384998</v>
       </c>
       <c r="K45" t="n">
         <v>159.3361098231955</v>
       </c>
       <c r="L45" t="n">
-        <v>214.2470629545398</v>
+        <v>17.89205537576869</v>
       </c>
       <c r="M45" t="n">
         <v>250.0162170868349</v>
@@ -34462,7 +34462,7 @@
         <v>256.633402406651</v>
       </c>
       <c r="O45" t="n">
-        <v>149.9125620402372</v>
+        <v>234.7694257972916</v>
       </c>
       <c r="P45" t="n">
         <v>188.4231618405162</v>
@@ -34707,10 +34707,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.516869431124789</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="N2" t="n">
-        <v>3.516869431124789</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.206918035433006</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.1678556611008975</v>
       </c>
       <c r="M3" t="n">
-        <v>3.37477369653389</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="N3" t="n">
-        <v>3.516869431124789</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="O3" t="n">
-        <v>3.516869431124789</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.516869431124789</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35026,10 +35026,10 @@
         <v>3.516869431124803</v>
       </c>
       <c r="N6" t="n">
+        <v>3.374773696533903</v>
+      </c>
+      <c r="O6" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3.374773696533902</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>3.206918035433006</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1678556611008975</v>
+      </c>
+      <c r="N9" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.167855661100898</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>3.516869431124803</v>
@@ -35491,7 +35491,7 @@
         <v>20.18993200110155</v>
       </c>
       <c r="K12" t="n">
-        <v>57.4962321004724</v>
+        <v>162.5430278586285</v>
       </c>
       <c r="L12" t="n">
         <v>285.5152633797348</v>
@@ -35506,7 +35506,7 @@
         <v>316.0247904663902</v>
       </c>
       <c r="P12" t="n">
-        <v>231.3382588737126</v>
+        <v>126.2914631155561</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.18993200110155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>57.49623210047151</v>
+        <v>3.206918035433006</v>
       </c>
       <c r="L15" t="n">
         <v>285.5152633797348</v>
@@ -35746,7 +35746,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>74.47924606614002</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>285.5152633797348</v>
       </c>
       <c r="M18" t="n">
-        <v>182.0345694332014</v>
+        <v>378.3895770119725</v>
       </c>
       <c r="N18" t="n">
-        <v>407.010372239607</v>
+        <v>210.6553646608359</v>
       </c>
       <c r="O18" t="n">
         <v>316.0247904663902</v>
@@ -36202,7 +36202,7 @@
         <v>20.18993200110155</v>
       </c>
       <c r="K21" t="n">
-        <v>57.49623210047151</v>
+        <v>162.5430278586285</v>
       </c>
       <c r="L21" t="n">
         <v>285.5152633797348</v>
@@ -36217,10 +36217,10 @@
         <v>316.0247904663902</v>
       </c>
       <c r="P21" t="n">
-        <v>231.3382588737126</v>
+        <v>34.98325129494149</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.18993200110155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>57.49623210047196</v>
+        <v>162.5430278586285</v>
       </c>
       <c r="L24" t="n">
         <v>285.5152633797348</v>
       </c>
       <c r="M24" t="n">
-        <v>378.3895770119725</v>
+        <v>202.2245014343029</v>
       </c>
       <c r="N24" t="n">
         <v>407.010372239607</v>
@@ -36457,7 +36457,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>285.5152633797348</v>
       </c>
       <c r="M27" t="n">
-        <v>273.3427812538164</v>
+        <v>273.3427812538159</v>
       </c>
       <c r="N27" t="n">
         <v>407.010372239607</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20.18993200110155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>162.5430278586285</v>
       </c>
       <c r="L30" t="n">
         <v>285.5152633797348</v>
@@ -36925,13 +36925,13 @@
         <v>407.010372239607</v>
       </c>
       <c r="O30" t="n">
-        <v>316.0247904663902</v>
+        <v>139.8597148887207</v>
       </c>
       <c r="P30" t="n">
         <v>231.3382588737126</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.49623210047186</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>285.5152633797348</v>
       </c>
       <c r="M33" t="n">
-        <v>378.3895770119725</v>
+        <v>182.0345694332014</v>
       </c>
       <c r="N33" t="n">
-        <v>301.963576481451</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O33" t="n">
         <v>316.0247904663902</v>
@@ -37168,7 +37168,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>20.18993200110155</v>
       </c>
       <c r="K36" t="n">
-        <v>57.4962321004724</v>
+        <v>162.5430278586285</v>
       </c>
       <c r="L36" t="n">
         <v>285.5152633797348</v>
@@ -37399,13 +37399,13 @@
         <v>407.010372239607</v>
       </c>
       <c r="O36" t="n">
-        <v>316.0247904663902</v>
+        <v>119.6697828876194</v>
       </c>
       <c r="P36" t="n">
         <v>231.3382588737126</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>20.18993200110155</v>
       </c>
       <c r="K39" t="n">
-        <v>57.4962321004724</v>
+        <v>162.5430278586285</v>
       </c>
       <c r="L39" t="n">
         <v>285.5152633797348</v>
@@ -37636,13 +37636,13 @@
         <v>407.010372239607</v>
       </c>
       <c r="O39" t="n">
-        <v>316.0247904663902</v>
+        <v>119.6697828876194</v>
       </c>
       <c r="P39" t="n">
         <v>231.3382588737126</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K42" t="n">
         <v>162.5430278586285</v>
       </c>
       <c r="L42" t="n">
-        <v>285.5152633797348</v>
+        <v>89.16025580096372</v>
       </c>
       <c r="M42" t="n">
         <v>378.3895770119725</v>
       </c>
       <c r="N42" t="n">
-        <v>322.1535084825525</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O42" t="n">
         <v>316.0247904663902</v>
@@ -37879,7 +37879,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>176.1260728987023</v>
       </c>
       <c r="L44" t="n">
-        <v>274.0384144626434</v>
+        <v>274.0384144626432</v>
       </c>
       <c r="M44" t="n">
         <v>334.0881736842605</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K45" t="n">
         <v>162.5430278586285</v>
       </c>
       <c r="L45" t="n">
-        <v>285.5152633797348</v>
+        <v>89.16025580096372</v>
       </c>
       <c r="M45" t="n">
         <v>378.3895770119725</v>
@@ -38110,13 +38110,13 @@
         <v>407.010372239607</v>
       </c>
       <c r="O45" t="n">
-        <v>231.1679267093358</v>
+        <v>316.0247904663902</v>
       </c>
       <c r="P45" t="n">
         <v>231.3382588737126</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
